--- a/pred_ohlcv/54_21/2019-10-25 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-25 LBA ohlcv.xlsx
@@ -2316,7 +2316,7 @@
         <v>1457366.267593434</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1457366.267593434</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1413322.416793434</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>2645646.358456849</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>2715893.202256849</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>2713811.784656849</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>2713811.784656849</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>2713811.784656849</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>2744154.094956849</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>2744154.094956849</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>2744154.094956849</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>2744154.094956849</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>2652588.405056849</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>2652600.405056849</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>2668848.223156849</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>2668848.223156849</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>2668848.223156849</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>2920272.034256849</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>3699369.984056849</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>3745035.571156849</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>3745035.571156849</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>2645468.397671134</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>2660088.397671134</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>2660088.397671134</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>3674896.463876277</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>3660815.968676277</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>3889371.697876277</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>3889240.872176277</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>3889240.872176277</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>3889240.872176277</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>3889240.872176277</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>3889240.872176277</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>3894428.934976277</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>3893429.934976277</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>3893429.934976277</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>3852874.550576277</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>3852874.550576277</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>3830975.690076277</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>3841627.866376277</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>3841627.866376277</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>3935786.096276277</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>3915786.096276277</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>3937381.591976277</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>3926548.452176277</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>3958170.052429765</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>3957177.052429765</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>3957177.052429765</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>3957177.052429765</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>3785931.664029765</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>3794706.507229765</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>3794706.507229765</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>3794706.507229765</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>3794706.507229765</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>4010065.856597581</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>4130411.182997582</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>4130411.182997582</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>4106716.976497582</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>4106716.976497582</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>4106716.976497582</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>4106716.976497582</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>4035829.976497582</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>4121197.184097582</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>4121197.184097582</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>4280899.503997581</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>4280899.503997581</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>4280899.503997581</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>4280899.503997581</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>4280899.503997581</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>4280899.503997581</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>4278649.503997581</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>4288112.880797581</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>4288112.880797581</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>4288112.880797581</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>4287478.24559758</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>4287478.24559758</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>4287478.24559758</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>4287478.24559758</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>4237478.15199758</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>4241587.86289758</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>4241587.86289758</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>4240034.042997581</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>4240034.042997581</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>4240034.042997581</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>4240034.042997581</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>4240034.042997581</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>4226348.971597581</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>4226348.971597581</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>4226348.971597581</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>4238416.965597581</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>4237426.965597581</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>4237426.965597581</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>4237426.965597581</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>4235528.963197581</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>4235528.963197581</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>4235528.963197581</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>4235528.963197581</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>4235528.963197581</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>4211545.963197581</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>4211545.963197581</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>4112372.625297581</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>4120003.862297582</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>4120003.862297582</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>4120003.862297582</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>4120003.862297582</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>4120003.862297582</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>4084636.654697582</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-25 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-25 LBA ohlcv.xlsx
@@ -2342,7 +2342,7 @@
         <v>1457366.267593434</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1413322.416793434</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>2152236.172793434</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>2645646.358456849</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>2715893.202256849</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>2713811.784656849</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>2713811.784656849</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>2713811.784656849</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>2744154.094956849</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>2744154.094956849</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>2744154.094956849</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>2744154.094956849</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>2652588.405056849</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>2652600.405056849</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>2668848.223156849</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>2668848.223156849</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>2668848.223156849</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>2920272.034256849</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>3699369.984056849</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>3745035.571156849</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>3745035.571156849</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>2645468.397671134</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>2660088.397671134</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>2660088.397671134</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>3383451.064359514</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>3554989.082376277</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>3612086.366776276</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>3546079.923176276</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>3446646.120476277</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>3721535.714476277</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>3721535.714476277</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>3721535.714476277</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>3721535.714476277</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>3674896.463876277</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>3674896.463876277</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>3674896.463876277</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>3437357.944076276</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>3455545.982276277</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>3778431.229476277</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>4032240.255576277</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>3856913.548976277</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>3660815.968676277</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>3847771.697876277</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>3847771.697876277</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>3889371.697876277</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>3889371.697876277</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>3889240.872176277</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>3889240.872176277</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>3889240.872176277</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>3889240.872176277</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>3889240.872176277</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>3894428.934976277</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>3893429.934976277</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>3893429.934976277</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>3852874.550576277</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>3852874.550576277</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>3830975.690076277</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>3841627.866376277</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>3841627.866376277</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>3935786.096276277</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>3915786.096276277</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>3937381.591976277</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>3926548.452176277</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>3958170.052429765</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>3957177.052429765</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>3957177.052429765</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>3957177.052429765</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>3785931.664029765</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>3794706.507229765</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>3794706.507229765</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>3794706.507229765</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>3794706.507229765</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>3794706.507229765</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>3794706.507229765</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>3794706.507229765</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>3794706.507229765</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>4130411.182997582</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>4130411.182997582</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>4106716.976497582</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>4106716.976497582</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>4106716.976497582</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>4106716.976497582</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>4035829.976497582</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>4121197.184097582</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>4121197.184097582</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>4280899.503997581</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>4280899.503997581</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>4280899.503997581</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>4280899.503997581</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>4280899.503997581</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>4280899.503997581</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>4278649.503997581</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>4288112.880797581</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>4288112.880797581</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>4288112.880797581</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>4287478.24559758</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>4287478.24559758</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>4287478.24559758</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>4287478.24559758</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>4237478.15199758</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>4241587.86289758</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>4241587.86289758</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>4240034.042997581</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>4240034.042997581</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>4240034.042997581</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>4226348.971597581</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>4226348.971597581</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>4226348.971597581</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>4238416.965597581</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>4237426.965597581</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>4237426.965597581</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>4237426.965597581</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>4235528.963197581</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>4235528.963197581</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>4235528.963197581</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>4235528.963197581</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
